--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Bmp2-Bmpr1a.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Bmp2-Bmpr1a.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>9.163165666666666</v>
+        <v>0.7170026666666667</v>
       </c>
       <c r="H2">
-        <v>27.489497</v>
+        <v>2.151008</v>
       </c>
       <c r="I2">
-        <v>0.2800251397703982</v>
+        <v>0.02953485643833859</v>
       </c>
       <c r="J2">
-        <v>0.2800251397703982</v>
+        <v>0.02953485643833859</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.750436666666666</v>
+        <v>2.341355666666667</v>
       </c>
       <c r="N2">
-        <v>14.25131</v>
+        <v>7.024067000000001</v>
       </c>
       <c r="O2">
-        <v>0.07745299862590357</v>
+        <v>0.03973512964576821</v>
       </c>
       <c r="P2">
-        <v>0.07745299862590357</v>
+        <v>0.0397351296457682</v>
       </c>
       <c r="Q2">
-        <v>43.52903816567444</v>
+        <v>1.678758256615111</v>
       </c>
       <c r="R2">
-        <v>391.76134349107</v>
+        <v>15.108824309536</v>
       </c>
       <c r="S2">
-        <v>0.02168878676585511</v>
+        <v>0.001173571349646536</v>
       </c>
       <c r="T2">
-        <v>0.02168878676585511</v>
+        <v>0.001173571349646536</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>9.163165666666666</v>
+        <v>0.7170026666666667</v>
       </c>
       <c r="H3">
-        <v>27.489497</v>
+        <v>2.151008</v>
       </c>
       <c r="I3">
-        <v>0.2800251397703982</v>
+        <v>0.02953485643833859</v>
       </c>
       <c r="J3">
-        <v>0.2800251397703982</v>
+        <v>0.02953485643833859</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>102.158321</v>
       </c>
       <c r="O3">
-        <v>0.5552098927072401</v>
+        <v>0.5779093692199981</v>
       </c>
       <c r="P3">
-        <v>0.5552098927072401</v>
+        <v>0.5779093692199981</v>
       </c>
       <c r="Q3">
-        <v>312.0312065171708</v>
+        <v>24.41592952639645</v>
       </c>
       <c r="R3">
-        <v>2808.280858654537</v>
+        <v>219.743365737568</v>
       </c>
       <c r="S3">
-        <v>0.1554727278072527</v>
+        <v>0.01706847025428345</v>
       </c>
       <c r="T3">
-        <v>0.1554727278072527</v>
+        <v>0.01706847025428346</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>9.163165666666666</v>
+        <v>0.7170026666666667</v>
       </c>
       <c r="H4">
-        <v>27.489497</v>
+        <v>2.151008</v>
       </c>
       <c r="I4">
-        <v>0.2800251397703982</v>
+        <v>0.02953485643833859</v>
       </c>
       <c r="J4">
-        <v>0.2800251397703982</v>
+        <v>0.02953485643833859</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>67.58983000000001</v>
       </c>
       <c r="O4">
-        <v>0.3673371086668564</v>
+        <v>0.3823555011342337</v>
       </c>
       <c r="P4">
-        <v>0.3673371086668564</v>
+        <v>0.3823555011342337</v>
       </c>
       <c r="Q4">
-        <v>206.4456032239456</v>
+        <v>16.15402944984889</v>
       </c>
       <c r="R4">
-        <v>1858.01042901551</v>
+        <v>145.38626504864</v>
       </c>
       <c r="S4">
-        <v>0.1028636251972904</v>
+        <v>0.0112928148344086</v>
       </c>
       <c r="T4">
-        <v>0.1028636251972904</v>
+        <v>0.0112928148344086</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>36.201142</v>
       </c>
       <c r="I5">
-        <v>0.3687673822623249</v>
+        <v>0.4970672037825566</v>
       </c>
       <c r="J5">
-        <v>0.3687673822623249</v>
+        <v>0.4970672037825566</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.750436666666666</v>
+        <v>2.341355666666667</v>
       </c>
       <c r="N5">
-        <v>14.25131</v>
+        <v>7.024067000000001</v>
       </c>
       <c r="O5">
-        <v>0.07745299862590357</v>
+        <v>0.03973512964576821</v>
       </c>
       <c r="P5">
-        <v>0.07745299862590357</v>
+        <v>0.0397351296457682</v>
       </c>
       <c r="Q5">
-        <v>57.32374411066889</v>
+        <v>28.25324965383489</v>
       </c>
       <c r="R5">
-        <v>515.9136969960201</v>
+        <v>254.279246884514</v>
       </c>
       <c r="S5">
-        <v>0.02856213955164191</v>
+        <v>0.01975102978495937</v>
       </c>
       <c r="T5">
-        <v>0.02856213955164191</v>
+        <v>0.01975102978495937</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>36.201142</v>
       </c>
       <c r="I6">
-        <v>0.3687673822623249</v>
+        <v>0.4970672037825566</v>
       </c>
       <c r="J6">
-        <v>0.3687673822623249</v>
+        <v>0.4970672037825566</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>102.158321</v>
       </c>
       <c r="O6">
-        <v>0.5552098927072401</v>
+        <v>0.5779093692199981</v>
       </c>
       <c r="P6">
-        <v>0.5552098927072401</v>
+        <v>0.5779093692199981</v>
       </c>
       <c r="Q6">
-        <v>410.9164316669537</v>
+        <v>410.9164316669535</v>
       </c>
       <c r="R6">
-        <v>3698.247885002583</v>
+        <v>3698.247885002582</v>
       </c>
       <c r="S6">
-        <v>0.2047432987397952</v>
+        <v>0.2872597941979255</v>
       </c>
       <c r="T6">
-        <v>0.2047432987397952</v>
+        <v>0.2872597941979255</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>36.201142</v>
       </c>
       <c r="I7">
-        <v>0.3687673822623249</v>
+        <v>0.4970672037825566</v>
       </c>
       <c r="J7">
-        <v>0.3687673822623249</v>
+        <v>0.4970672037825566</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,22 +868,22 @@
         <v>67.58983000000001</v>
       </c>
       <c r="O7">
-        <v>0.3673371086668564</v>
+        <v>0.3823555011342337</v>
       </c>
       <c r="P7">
-        <v>0.3673371086668564</v>
+        <v>0.3823555011342337</v>
       </c>
       <c r="Q7">
-        <v>271.8698926206512</v>
+        <v>271.8698926206511</v>
       </c>
       <c r="R7">
-        <v>2446.829033585861</v>
+        <v>2446.82903358586</v>
       </c>
       <c r="S7">
-        <v>0.1354619439708878</v>
+        <v>0.1900563797996717</v>
       </c>
       <c r="T7">
-        <v>0.1354619439708878</v>
+        <v>0.1900563797996717</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>34.477322</v>
       </c>
       <c r="I8">
-        <v>0.3512074779672769</v>
+        <v>0.4733979397791048</v>
       </c>
       <c r="J8">
-        <v>0.3512074779672769</v>
+        <v>0.4733979397791048</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.750436666666666</v>
+        <v>2.341355666666667</v>
       </c>
       <c r="N8">
-        <v>14.25131</v>
+        <v>7.024067000000001</v>
       </c>
       <c r="O8">
-        <v>0.07745299862590357</v>
+        <v>0.03973512964576821</v>
       </c>
       <c r="P8">
-        <v>0.07745299862590357</v>
+        <v>0.0397351296457682</v>
       </c>
       <c r="Q8">
-        <v>54.59411153242444</v>
+        <v>26.90789107873045</v>
       </c>
       <c r="R8">
-        <v>491.34700379182</v>
+        <v>242.171019708574</v>
       </c>
       <c r="S8">
-        <v>0.02720207230840656</v>
+        <v>0.0188105285111623</v>
       </c>
       <c r="T8">
-        <v>0.02720207230840656</v>
+        <v>0.0188105285111623</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>34.477322</v>
       </c>
       <c r="I9">
-        <v>0.3512074779672769</v>
+        <v>0.4733979397791048</v>
       </c>
       <c r="J9">
-        <v>0.3512074779672769</v>
+        <v>0.4733979397791048</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>102.158321</v>
       </c>
       <c r="O9">
-        <v>0.5552098927072401</v>
+        <v>0.5779093692199981</v>
       </c>
       <c r="P9">
-        <v>0.5552098927072401</v>
+        <v>0.5779093692199981</v>
       </c>
       <c r="Q9">
         <v>391.3494808995958</v>
@@ -1004,10 +1004,10 @@
         <v>3522.145328096362</v>
       </c>
       <c r="S9">
-        <v>0.1949938661601922</v>
+        <v>0.2735811047677891</v>
       </c>
       <c r="T9">
-        <v>0.1949938661601922</v>
+        <v>0.2735811047677891</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>34.477322</v>
       </c>
       <c r="I10">
-        <v>0.3512074779672769</v>
+        <v>0.4733979397791048</v>
       </c>
       <c r="J10">
-        <v>0.3512074779672769</v>
+        <v>0.4733979397791048</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>67.58983000000001</v>
       </c>
       <c r="O10">
-        <v>0.3673371086668564</v>
+        <v>0.3823555011342337</v>
       </c>
       <c r="P10">
-        <v>0.3673371086668564</v>
+        <v>0.3823555011342337</v>
       </c>
       <c r="Q10">
         <v>258.9240369816956</v>
@@ -1066,10 +1066,10 @@
         <v>2330.31633283526</v>
       </c>
       <c r="S10">
-        <v>0.1290115394986782</v>
+        <v>0.1810063065001534</v>
       </c>
       <c r="T10">
-        <v>0.1290115394986782</v>
+        <v>0.1810063065001534</v>
       </c>
     </row>
   </sheetData>
